--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject27.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject27.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0</v>
+        <v>0.54917845561194434</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -185,16 +185,16 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0</v>
+        <v>0.6795033691486424</v>
       </c>
       <c r="U1" s="0">
-        <v>0</v>
+        <v>0.90887050695020355</v>
       </c>
       <c r="V1" s="0">
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0</v>
+        <v>0.6170045409662116</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -215,7 +215,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE1" s="0">
         <v>0</v>
@@ -236,7 +236,7 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="0">
         <v>0</v>
@@ -275,7 +275,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>0.5748812278023423</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -296,7 +296,7 @@
         <v>0</v>
       </c>
       <c r="BE1" s="0">
-        <v>0</v>
+        <v>0.79571703606231736</v>
       </c>
       <c r="BF1" s="0">
         <v>0</v>
@@ -373,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>0</v>
+        <v>0.66656740405269188</v>
       </c>
       <c r="O2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>0.95172784293012336</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="0">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="0">
-        <v>0</v>
+        <v>0.70085407440568614</v>
       </c>
       <c r="AH2" s="0">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="AM2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="BG2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.83097279652764688</v>
       </c>
     </row>
     <row r="3">
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0</v>
+        <v>0.83985812061807019</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0</v>
+        <v>0.80207059375925249</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0</v>
+        <v>0.59409373722027703</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -708,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="0">
-        <v>0</v>
+        <v>0.89291118955425586</v>
       </c>
       <c r="BF3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="0">
         <v>0</v>
@@ -729,13 +729,13 @@
         <v>0</v>
       </c>
       <c r="BL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3" s="0">
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>0.77026635904300611</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="0">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0</v>
+        <v>0.54382284166935779</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="0">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="BD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="0">
         <v>0</v>
@@ -920,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="BG4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="0">
-        <v>0</v>
+        <v>0.90542574973938339</v>
       </c>
       <c r="BI4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.61155666855954682</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>0</v>
+        <v>0.9471582410670687</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="0">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="0">
-        <v>0</v>
+        <v>0.94744448537077641</v>
       </c>
       <c r="AS5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>0.72782148605570085</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.59420757960810477</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0</v>
+        <v>0.60265373945986644</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>0</v>
+        <v>0.59338106386583944</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>0.59291907107544906</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="0">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="0">
-        <v>0</v>
+        <v>0.95991075825222505</v>
       </c>
       <c r="AN7" s="0">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="0">
-        <v>0</v>
+        <v>0.80699032212573973</v>
       </c>
       <c r="AS7" s="0">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0</v>
+        <v>0.6861336947366925</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="0">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="0">
-        <v>0</v>
+        <v>0.74718467268915356</v>
       </c>
       <c r="AG8" s="0">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="0">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="0">
-        <v>0</v>
+        <v>0.76125403519131618</v>
       </c>
       <c r="AW8" s="0">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>0</v>
+        <v>0.60288088753892533</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>0</v>
+        <v>0.92459007331665677</v>
       </c>
       <c r="R9" s="0">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="0">
-        <v>0</v>
+        <v>0.89378433002398094</v>
       </c>
       <c r="AM9" s="0">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="0">
-        <v>0</v>
+        <v>0.6002943369556295</v>
       </c>
       <c r="BN9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0</v>
+        <v>0.62817100606769838</v>
       </c>
     </row>
     <row r="10">
@@ -2015,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>0</v>
+        <v>0.74286651413008509</v>
       </c>
       <c r="M10" s="0">
-        <v>0</v>
+        <v>0.80625434210825619</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="0">
-        <v>0</v>
+        <v>0.78489147129545445</v>
       </c>
       <c r="AI10" s="0">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="AT10" s="0">
-        <v>0</v>
+        <v>0.90191315487310653</v>
       </c>
       <c r="AU10" s="0">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="BB10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="0">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="0">
         <v>0</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0</v>
+        <v>0.94255038334297714</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0</v>
+        <v>0.94314657479106634</v>
       </c>
       <c r="AK11" s="0">
         <v>0</v>
       </c>
       <c r="AL11" s="0">
-        <v>0</v>
+        <v>0.87024647992725801</v>
       </c>
       <c r="AM11" s="0">
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>0</v>
+        <v>0.93029752545730215</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0</v>
+        <v>0.86004611926222718</v>
       </c>
       <c r="AR11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0</v>
+        <v>0.69002976545640959</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BD11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="0">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="BH11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0</v>
+        <v>0.71231300333301018</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0</v>
+        <v>0.59821241572452255</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0</v>
+        <v>0.63354212060634751</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>0</v>
+        <v>0.67216782795370789</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>0</v>
       </c>
       <c r="BK12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM12" s="0">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="0">
-        <v>0</v>
+        <v>0.98589432589152182</v>
       </c>
       <c r="F13" s="0">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="0">
-        <v>0</v>
+        <v>0.9387215695980724</v>
       </c>
       <c r="K13" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0</v>
+        <v>0.70169257061973611</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>0</v>
+        <v>0.70643283916532107</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="AP13" s="0">
-        <v>1</v>
+        <v>0.90851442015238004</v>
       </c>
       <c r="AQ13" s="0">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="AS13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="0">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="BM13" s="0">
-        <v>0</v>
+        <v>0.91465968169463718</v>
       </c>
       <c r="BN13" s="0">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
+        <v>0.514262742667567</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="0">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0</v>
+        <v>0.73933914740844031</v>
       </c>
       <c r="AK14" s="0">
         <v>0</v>
@@ -2971,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>0</v>
+        <v>0.76764861768213244</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0</v>
+        <v>0.89329407216530043</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0</v>
+        <v>0.64160013973896635</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="BP14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0">
-        <v>0</v>
+        <v>0.96155529625095859</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>0</v>
+        <v>0.64148858996347191</v>
       </c>
       <c r="W15" s="0">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>0</v>
+        <v>0.73525145815112036</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0</v>
+        <v>0.78871967281202249</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="0">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>0</v>
+        <v>0.73571882319577564</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0</v>
+        <v>0.60484102763917902</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3332,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="AM16" s="0">
-        <v>0</v>
+        <v>0.95982966496184619</v>
       </c>
       <c r="AN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>0</v>
+        <v>0.74616186230066039</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
@@ -3386,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0</v>
+        <v>0.89102702012541479</v>
       </c>
       <c r="BF16" s="0">
-        <v>0</v>
+        <v>0.63503467227820343</v>
       </c>
       <c r="BG16" s="0">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="BP16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>0.51901969715683471</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>0.60254646788634614</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.62633332965738098</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0</v>
+        <v>0.63128610510464434</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="BI17" s="0">
-        <v>1</v>
+        <v>0.80660143830514985</v>
       </c>
       <c r="BJ17" s="0">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="BN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO17" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.8343706790204648</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>0</v>
+        <v>0.6990534296227735</v>
       </c>
       <c r="AA18" s="0">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="0">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="0">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="0">
         <v>0</v>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="0">
-        <v>0</v>
+        <v>0.89943455239679249</v>
       </c>
       <c r="AY18" s="0">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="0">
-        <v>0</v>
+        <v>0.76631813269308791</v>
       </c>
       <c r="BD18" s="0">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="BF18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="0">
         <v>0</v>
@@ -3848,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="0">
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0</v>
+        <v>0.75524472131840992</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3887,13 +3887,13 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.54723724926254014</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="0">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0</v>
+        <v>0.83757080468764711</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0</v>
+        <v>0.52346323666365746</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>0.91730158084496072</v>
       </c>
       <c r="B20" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="0">
-        <v>0</v>
+        <v>0.83243506691542546</v>
       </c>
       <c r="AB20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0</v>
+        <v>0.54768462933071449</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>0</v>
+        <v>0.90490938184101388</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="BM20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="0">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0</v>
+        <v>0.84162794254935425</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.77337633661106109</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="0">
         <v>0</v>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="0">
-        <v>0</v>
+        <v>0.79962128494926543</v>
       </c>
       <c r="AJ21" s="0">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="AT21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="0">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK21" s="0">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="BN21" s="0">
-        <v>0</v>
+        <v>0.70369828387440703</v>
       </c>
       <c r="BO21" s="0">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="0">
         <v>0</v>
@@ -4490,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="0">
-        <v>0</v>
+        <v>0.77665180725184679</v>
       </c>
       <c r="N22" s="0">
         <v>0</v>
       </c>
       <c r="O22" s="0">
-        <v>0</v>
+        <v>0.65856064904469303</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0</v>
+        <v>0.65236892946664771</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>0.9889873971609594</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="0">
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.67213704527604889</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AO23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="0">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="0">
-        <v>0</v>
+        <v>0.88757670604094274</v>
       </c>
       <c r="AU23" s="0">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="0">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.57688428615497989</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0</v>
+        <v>0.5082410825636976</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="0">
         <v>0</v>
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="0">
-        <v>0</v>
+        <v>0.57284683484285737</v>
       </c>
       <c r="BJ24" s="0">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="0">
         <v>0</v>
@@ -5084,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="0">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="0">
-        <v>0</v>
+        <v>0.6336619015535061</v>
       </c>
       <c r="M25" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>0</v>
+        <v>0.53716771064057589</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.50915286059656162</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.72775622508775895</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0</v>
+        <v>0.6293780974672667</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5329,10 +5329,10 @@
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>0</v>
+        <v>0.67630015576605784</v>
       </c>
       <c r="S26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>0</v>
+        <v>0.86920057688244956</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="0">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="0">
         <v>0</v>
@@ -5541,13 +5541,13 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0</v>
+        <v>0.50783982369005565</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>0</v>
+        <v>0.82641247365060577</v>
       </c>
       <c r="W27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.78514297290245505</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.74971693109411297</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5610,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0</v>
+        <v>0.619745590705572</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>0</v>
+        <v>0.59873486150070554</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5834,16 +5834,16 @@
         <v>0</v>
       </c>
       <c r="AW28" s="0">
-        <v>0</v>
+        <v>0.63980280351169339</v>
       </c>
       <c r="AX28" s="0">
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>0</v>
+        <v>0.75492572709964256</v>
       </c>
       <c r="AZ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BD28" s="0">
-        <v>1</v>
+        <v>0.94221047001379166</v>
       </c>
       <c r="BE28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5882,16 +5882,16 @@
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>0</v>
+        <v>0.97277650762534784</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
       </c>
       <c r="BO28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.70743200972165821</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="0">
-        <v>0</v>
+        <v>0.91989305163533497</v>
       </c>
       <c r="AJ29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>0</v>
+        <v>0.80035207107829787</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6102,13 +6102,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0">
         <v>0</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.94995509809755263</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>0</v>
+        <v>0.56479892020482203</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="BB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.60325190222871394</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="0">
-        <v>0</v>
+        <v>0.87348224865588175</v>
       </c>
       <c r="AQ31" s="0">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN31" s="0">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0</v>
+        <v>0.6314822455658835</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6544,13 +6544,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>0</v>
+        <v>0.96019806770186134</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
       </c>
       <c r="M32" s="0">
-        <v>0</v>
+        <v>0.84305496518574574</v>
       </c>
       <c r="N32" s="0">
         <v>0</v>
@@ -6559,10 +6559,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>0</v>
+        <v>0.6209905344634834</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.77862308543450209</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0</v>
+        <v>0.56105600990724724</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>0.63754695816896234</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6759,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="0">
         <v>0</v>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="0">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="0">
-        <v>0</v>
+        <v>0.84895834325008757</v>
       </c>
       <c r="Y33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.6619908933317652</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>0</v>
+        <v>0.59774292941101625</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="AS33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="0">
         <v>0</v>
@@ -6953,13 +6953,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>0</v>
+        <v>0.55343900313565375</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
       </c>
       <c r="L34" s="0">
-        <v>0</v>
+        <v>0.75412747172302508</v>
       </c>
       <c r="M34" s="0">
         <v>0</v>
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="0">
-        <v>0</v>
+        <v>0.69382026019674115</v>
       </c>
       <c r="Q34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="AZ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0</v>
+        <v>0.50131385448090449</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="0">
-        <v>0</v>
+        <v>0.87782312208712676</v>
       </c>
       <c r="AD35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>0</v>
+        <v>0.70269405817258423</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>0</v>
+        <v>0.78108697129111881</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0</v>
+        <v>0.83644242996010487</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0</v>
+        <v>0.56647165935840627</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7413,13 +7413,13 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>0</v>
+        <v>0.63979195400130262</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
         <v>0</v>
@@ -7467,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="AR36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.76349743162165995</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="AX36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="0">
-        <v>0</v>
+        <v>0.81109177047152747</v>
       </c>
       <c r="G37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7664,10 +7664,10 @@
         <v>0</v>
       </c>
       <c r="AO37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7682,13 +7682,13 @@
         <v>0</v>
       </c>
       <c r="AU37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="0">
         <v>0</v>
       </c>
       <c r="AW37" s="0">
-        <v>0</v>
+        <v>0.89866101532248188</v>
       </c>
       <c r="AX37" s="0">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="BK37" s="0">
-        <v>0</v>
+        <v>0.96443754419350924</v>
       </c>
       <c r="BL37" s="0">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="0">
-        <v>0</v>
+        <v>0.65278123140829625</v>
       </c>
       <c r="E38" s="0">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>0</v>
+        <v>0.74059897467097846</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0</v>
+        <v>0.74915257781036493</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>0</v>
+        <v>0.94735018838405471</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.74363733765755946</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="AV38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="0">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="0">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>0</v>
+        <v>0.52604982172729442</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>0</v>
+        <v>0.54600370718006297</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.52046551447783429</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="BL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM39" s="0">
         <v>0</v>
@@ -8165,13 +8165,13 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0">
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="0">
-        <v>0</v>
+        <v>0.99894698459701048</v>
       </c>
       <c r="L40" s="0">
         <v>0</v>
@@ -8207,13 +8207,13 @@
         <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
       </c>
       <c r="R40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.83760810924844153</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.55110446232193544</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.80017733616957387</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="BD40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE40" s="0">
         <v>0</v>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" s="0">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.54706919605435167</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="BM41" s="0">
-        <v>0</v>
+        <v>0.88992720922427715</v>
       </c>
       <c r="BN41" s="0">
         <v>0</v>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="0">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>1</v>
+        <v>0.77565032524734656</v>
       </c>
       <c r="N42" s="0">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="0">
-        <v>0</v>
+        <v>0.67594124766963515</v>
       </c>
       <c r="AF42" s="0">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="AI42" s="0">
-        <v>0</v>
+        <v>0.97077266182799882</v>
       </c>
       <c r="AJ42" s="0">
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.95603424185853936</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.57269317588996205</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="BJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK42" s="0">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>0</v>
+        <v>0.67632102748946044</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0</v>
+        <v>0.98804721851213073</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="0">
-        <v>0</v>
+        <v>0.838541492632495</v>
       </c>
       <c r="AB43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.70169492304857584</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="BK43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43" s="0">
         <v>0</v>
@@ -8998,13 +8998,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0</v>
+        <v>0.81619391237684424</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
       </c>
       <c r="G44" s="0">
-        <v>0</v>
+        <v>0.84423922542799323</v>
       </c>
       <c r="H44" s="0">
         <v>0</v>
@@ -9037,10 +9037,10 @@
         <v>0</v>
       </c>
       <c r="R44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>0.79627336368572488</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.5874410582010281</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9136,10 +9136,10 @@
         <v>0</v>
       </c>
       <c r="AY44" s="0">
-        <v>0</v>
+        <v>0.81876097669294312</v>
       </c>
       <c r="AZ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="0">
         <v>0</v>
@@ -9228,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9270,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="AA45" s="0">
-        <v>0</v>
+        <v>0.81060532329991764</v>
       </c>
       <c r="AB45" s="0">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>0</v>
+        <v>0.60350227671617862</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>0</v>
       </c>
       <c r="AG45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="0">
         <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.50173013320268478</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="AV45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>0</v>
+        <v>0.97834477105350159</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="0">
-        <v>0</v>
+        <v>0.80120285000941294</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="0">
-        <v>0</v>
+        <v>0.84068189719094666</v>
       </c>
       <c r="K46" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9458,13 +9458,13 @@
         <v>0</v>
       </c>
       <c r="U46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="0">
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0</v>
+        <v>0.79929011183585597</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9560,7 +9560,7 @@
         <v>0</v>
       </c>
       <c r="BC46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD46" s="0">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47" s="0">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>0</v>
+        <v>0.72868060886089747</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.51713286741909736</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9787,16 +9787,16 @@
         <v>0</v>
       </c>
       <c r="BJ47" s="0">
-        <v>0</v>
+        <v>0.81291255458088996</v>
       </c>
       <c r="BK47" s="0">
         <v>0</v>
       </c>
       <c r="BL47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0</v>
+        <v>0.5846449945450849</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="0">
         <v>0</v>
@@ -9942,22 +9942,22 @@
         <v>0</v>
       </c>
       <c r="AS48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="0">
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0</v>
+        <v>0.64526699068637594</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.9960543591057569</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>0</v>
       </c>
       <c r="BJ48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK48" s="0">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="0">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="0">
-        <v>0</v>
+        <v>0.81977167738829837</v>
       </c>
       <c r="Q49" s="0">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>0</v>
+        <v>0.58461599885888194</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>0</v>
+        <v>0.81082443396926906</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.89672757869870734</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0</v>
+        <v>0.67318036051661256</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="BC49" s="0">
-        <v>0</v>
+        <v>0.85391979141555874</v>
       </c>
       <c r="BD49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0</v>
+        <v>0.55491204860589349</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="0">
-        <v>0</v>
+        <v>0.87756479023246503</v>
       </c>
       <c r="BK49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="0">
-        <v>0</v>
+        <v>0.75313187161146655</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
@@ -10324,10 +10324,10 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>0</v>
+        <v>0.50782675368935348</v>
       </c>
       <c r="AJ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.90368855750614485</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.82409047338424224</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="BL50" s="0">
-        <v>0</v>
+        <v>0.79973656218311651</v>
       </c>
       <c r="BM50" s="0">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0</v>
+        <v>0.53399543755200596</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>0</v>
+        <v>0.51164156479928213</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10575,19 +10575,19 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.73679638098523614</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.57859190038990116</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0</v>
+        <v>0.5045900936074017</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="0">
         <v>0</v>
@@ -10763,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="0">
         <v>0</v>
@@ -10778,13 +10778,13 @@
         <v>0</v>
       </c>
       <c r="AW52" s="0">
-        <v>0</v>
+        <v>0.95287847511856238</v>
       </c>
       <c r="AX52" s="0">
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.61473782947470101</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="BF52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG52" s="0">
         <v>0</v>
@@ -10814,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="BI52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ52" s="0">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="BO52" s="0">
-        <v>0</v>
+        <v>0.94969865758218774</v>
       </c>
       <c r="BP52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>0.64442492166630028</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="0">
-        <v>0</v>
+        <v>0.70803465626411288</v>
       </c>
       <c r="L53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.77804103961797977</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="BP53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="0">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="0">
-        <v>0</v>
+        <v>0.59042870435064021</v>
       </c>
       <c r="T54" s="0">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="AD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="0">
         <v>0</v>
@@ -11196,19 +11196,19 @@
         <v>0</v>
       </c>
       <c r="AY54" s="0">
-        <v>0</v>
+        <v>0.86599206351005031</v>
       </c>
       <c r="AZ54" s="0">
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.54237867111961058</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0</v>
+        <v>0.68596532187982906</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="AT55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="0">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="AW55" s="0">
-        <v>0</v>
+        <v>0.84765196073432392</v>
       </c>
       <c r="AX55" s="0">
         <v>0</v>
@@ -11408,10 +11408,10 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="0">
         <v>0</v>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>0.87906529478895612</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>1</v>
+        <v>0.86268896079644031</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="AN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO56" s="0">
         <v>0</v>
@@ -11664,13 +11664,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0</v>
+        <v>0.51975924585323496</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>0</v>
+        <v>0.58482518568442521</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>0</v>
+        <v>0.94071512483512221</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="0">
-        <v>0</v>
+        <v>0.91557531435576811</v>
       </c>
       <c r="AD57" s="0">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="BP57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -11909,25 +11909,25 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0</v>
+        <v>0.9307096118971554</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>0</v>
+        <v>0.58737694101508309</v>
       </c>
       <c r="Q58" s="0">
         <v>0</v>
       </c>
       <c r="R58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" s="0">
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>0</v>
+        <v>0.7471263489593406</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="AZ58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>0</v>
+        <v>0.87076352103681964</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12079,13 +12079,13 @@
         <v>0</v>
       </c>
       <c r="B59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="0">
         <v>0</v>
       </c>
       <c r="D59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>0</v>
+        <v>0.9178376219986224</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.64561541679228429</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0</v>
+        <v>0.90137203561310208</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" s="0">
         <v>0</v>
@@ -12351,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="X60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0</v>
+        <v>0.75880027921361903</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.7946272394951539</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.59753820906475341</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12506,7 +12506,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="0">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="0">
-        <v>0</v>
+        <v>0.65122610197715902</v>
       </c>
       <c r="O61" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>1</v>
+        <v>0.73683455698945943</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12545,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0</v>
+        <v>0.93581215215940228</v>
       </c>
       <c r="U61" s="0">
         <v>0</v>
@@ -12554,10 +12554,10 @@
         <v>0</v>
       </c>
       <c r="W61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="0">
-        <v>0</v>
+        <v>0.77520340945849409</v>
       </c>
       <c r="Y61" s="0">
         <v>0</v>
@@ -12572,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>0</v>
+        <v>0.78330992715735215</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="AZ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="0">
         <v>0</v>
@@ -12665,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.84893805236617759</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
@@ -12674,13 +12674,13 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.67076767133410642</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12709,13 +12709,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="0">
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0</v>
+        <v>0.58949736791316498</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12754,10 +12754,10 @@
         <v>0</v>
       </c>
       <c r="U62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AP62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ62" s="0">
         <v>0</v>
@@ -12832,13 +12832,13 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0</v>
+        <v>0.80924246022110469</v>
       </c>
       <c r="AV62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>0</v>
+        <v>0.84597785377881229</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -12886,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="BM62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN62" s="0">
-        <v>0</v>
+        <v>0.99621661241068549</v>
       </c>
       <c r="BO62" s="0">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" s="0">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0</v>
+        <v>0.559908723274127</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="AQ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0</v>
+        <v>0.59093347498622006</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.92152389976434801</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13109,10 +13109,10 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0</v>
+        <v>0.69893676209304845</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" s="0">
         <v>0</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN64" s="0">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="AU64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="0">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="0">
-        <v>0</v>
+        <v>0.6450077338685114</v>
       </c>
       <c r="AY64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13298,16 +13298,16 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.68360916086374079</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.86829739644148585</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
       </c>
       <c r="BP64" s="0">
-        <v>0</v>
+        <v>0.82224818544579426</v>
       </c>
     </row>
     <row r="65">
@@ -13336,7 +13336,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="0">
-        <v>0</v>
+        <v>0.69750950520373134</v>
       </c>
       <c r="J65" s="0">
         <v>0</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0</v>
+        <v>0.6104934658160448</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0</v>
+        <v>0.76522367295921279</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="0">
-        <v>0</v>
+        <v>0.88045149558575453</v>
       </c>
       <c r="AP65" s="0">
         <v>0</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13492,16 +13492,16 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK65" s="0">
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.81335356000266246</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.56979362257483301</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.88570554459801998</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13560,13 +13560,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="0">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>0</v>
+        <v>0.62057946581881795</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>0</v>
+        <v>0.96651028912709913</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13701,13 +13701,13 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>0</v>
+        <v>0.56666938159939328</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.63927182490654699</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -13754,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="0">
-        <v>0</v>
+        <v>0.9884399892259419</v>
       </c>
       <c r="L67" s="0">
         <v>0</v>
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13805,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="AB67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>0</v>
+        <v>0.84872574643141085</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.84965098595371591</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.5878216637827578</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.67919285255544692</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="0">
-        <v>0</v>
+        <v>0.71503501255272062</v>
       </c>
       <c r="J68" s="0">
         <v>0</v>
@@ -13966,16 +13966,16 @@
         <v>0</v>
       </c>
       <c r="M68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" s="0">
         <v>0</v>
       </c>
       <c r="P68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="0">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="AB68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC68" s="0">
         <v>0</v>
@@ -14086,7 +14086,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="0">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="BE68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF68" s="0">
         <v>0</v>
@@ -14119,16 +14119,16 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>0</v>
+        <v>0.77649809286201199</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.98393164107267772</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject27.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject27.xlsx
@@ -143,7 +143,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="0">
-        <v>0.54917845561194434</v>
+        <v>0.72782148605570085</v>
       </c>
       <c r="G1" s="0">
         <v>0</v>
@@ -185,7 +185,7 @@
         <v>0</v>
       </c>
       <c r="T1" s="0">
-        <v>0.6795033691486424</v>
+        <v>0.91730158084496072</v>
       </c>
       <c r="U1" s="0">
         <v>0.90887050695020355</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>0.6170045409662116</v>
+        <v>0.9889873971609594</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0.5748812278023423</v>
+        <v>0.64442492166630028</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>0.83985812061807019</v>
+        <v>0.96155529625095859</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="0">
-        <v>0.80207059375925249</v>
+        <v>0.94995509809755263</v>
       </c>
       <c r="AE3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>0.59409373722027703</v>
+        <v>0.80120285000941294</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0.77026635904300611</v>
+        <v>0.88570554459801998</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.54382284166935779</v>
+        <v>0.65278123140829625</v>
       </c>
       <c r="AM4" s="0">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="0">
-        <v>0.9471582410670687</v>
+        <v>0.98589432589152182</v>
       </c>
       <c r="N5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.59420757960810477</v>
+        <v>0.61155666855954682</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0.60265373945986644</v>
+        <v>0.78871967281202249</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.59338106386583944</v>
+        <v>0.81109177047152747</v>
       </c>
       <c r="AL6" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0.59291907107544906</v>
+        <v>0.75524472131840992</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="0">
-        <v>0.80699032212573973</v>
+        <v>0.84423922542799323</v>
       </c>
       <c r="AS7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0.6861336947366925</v>
+        <v>0.69893676209304845</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="BM9" s="0">
-        <v>0.6002943369556295</v>
+        <v>0.69750950520373134</v>
       </c>
       <c r="BN9" s="0">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="BP9" s="0">
-        <v>0.62817100606769838</v>
+        <v>0.71503501255272062</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +2018,7 @@
         <v>0.74286651413008509</v>
       </c>
       <c r="M10" s="0">
-        <v>0.80625434210825619</v>
+        <v>0.9387215695980724</v>
       </c>
       <c r="N10" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>0.94255038334297714</v>
+        <v>0.96019806770186134</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="0">
-        <v>0.93029752545730215</v>
+        <v>0.99894698459701048</v>
       </c>
       <c r="AO11" s="0">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BA11" s="0">
-        <v>0.69002976545640959</v>
+        <v>0.70803465626411288</v>
       </c>
       <c r="BB11" s="0">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="0">
-        <v>0.71231300333301018</v>
+        <v>0.9884399892259419</v>
       </c>
       <c r="BP11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.59821241572452255</v>
+        <v>0.74286651413008509</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>0.63354212060634751</v>
+        <v>0.6336619015535061</v>
       </c>
       <c r="Z12" s="0">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.67216782795370789</v>
+        <v>0.75412747172302508</v>
       </c>
       <c r="AI12" s="0">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="0">
-        <v>0.70169257061973611</v>
+        <v>0.77665180725184679</v>
       </c>
       <c r="W13" s="0">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="0">
-        <v>0.70643283916532107</v>
+        <v>0.84305496518574574</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="0">
-        <v>0.514262742667567</v>
+        <v>0.66656740405269188</v>
       </c>
       <c r="C14" s="0">
         <v>0</v>
@@ -2971,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="BD14" s="0">
-        <v>0.76764861768213244</v>
+        <v>0.87906529478895612</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0.89329407216530043</v>
+        <v>0.9307096118971554</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BI14" s="0">
-        <v>0.64160013973896635</v>
+        <v>0.65122610197715902</v>
       </c>
       <c r="BJ14" s="0">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="0">
-        <v>0.64148858996347191</v>
+        <v>0.65856064904469303</v>
       </c>
       <c r="W15" s="0">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.60484102763917902</v>
+        <v>0.69382026019674115</v>
       </c>
       <c r="AI16" s="0">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="AW16" s="0">
-        <v>0.74616186230066039</v>
+        <v>0.81977167738829837</v>
       </c>
       <c r="AX16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>0.89102702012541479</v>
+        <v>0.94071512483512221</v>
       </c>
       <c r="BF16" s="0">
         <v>0.63503467227820343</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0.51901969715683471</v>
+        <v>0.95172784293012336</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="0">
-        <v>0.60254646788634614</v>
+        <v>0.92459007331665677</v>
       </c>
       <c r="J17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.62633332965738098</v>
+        <v>0.77862308543450209</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.63128610510464434</v>
+        <v>0.98804721851213073</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.54723724926254014</v>
+        <v>0.8343706790204648</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="BB19" s="0">
-        <v>0.52346323666365746</v>
+        <v>0.59042870435064021</v>
       </c>
       <c r="BC19" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>0.54768462933071449</v>
+        <v>0.7471263489593406</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="0">
-        <v>0.90490938184101388</v>
+        <v>0.93581215215940228</v>
       </c>
       <c r="BJ20" s="0">
         <v>0</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.84162794254935425</v>
+        <v>0.90887050695020355</v>
       </c>
       <c r="B21" s="0">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.65236892946664771</v>
+        <v>0.82641247365060577</v>
       </c>
       <c r="AB22" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.67213704527604889</v>
+        <v>0.77337633661106109</v>
       </c>
       <c r="V23" s="0">
         <v>0</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.5082410825636976</v>
+        <v>0.84895834325008757</v>
       </c>
       <c r="AH24" s="0">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="0">
-        <v>0.57284683484285737</v>
+        <v>0.77520340945849409</v>
       </c>
       <c r="BJ24" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>0.53716771064057589</v>
+        <v>0.73525145815112036</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0.50915286059656162</v>
+        <v>0.57688428615497989</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.72775622508775895</v>
+        <v>0.78514297290245505</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>0.6293780974672667</v>
+        <v>0.96651028912709913</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>0.67630015576605784</v>
+        <v>0.6990534296227735</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>0.50783982369005565</v>
+        <v>0.83243506691542546</v>
       </c>
       <c r="U27" s="0">
         <v>0</v>
@@ -5610,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="AQ27" s="0">
-        <v>0.619745590705572</v>
+        <v>0.838541492632495</v>
       </c>
       <c r="AR27" s="0">
         <v>0</v>
       </c>
       <c r="AS27" s="0">
-        <v>0.59873486150070554</v>
+        <v>0.81060532329991764</v>
       </c>
       <c r="AT27" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.70743200972165821</v>
+        <v>0.74971693109411297</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -6064,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="0">
-        <v>0.80035207107829787</v>
+        <v>0.91557531435576811</v>
       </c>
       <c r="BF29" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>0.56479892020482203</v>
+        <v>0.60350227671617862</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.60325190222871394</v>
+        <v>0.6619908933317652</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="0">
-        <v>0.6314822455658835</v>
+        <v>0.74718467268915356</v>
       </c>
       <c r="I32" s="0">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>0.6209905344634834</v>
+        <v>0.73571882319577564</v>
       </c>
       <c r="Q32" s="0">
         <v>0.77862308543450209</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0.56105600990724724</v>
+        <v>0.78330992715735215</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="0">
-        <v>0.63754695816896234</v>
+        <v>0.70085407440568614</v>
       </c>
       <c r="C33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>0.59774292941101625</v>
+        <v>0.94735018838405471</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="0">
-        <v>0.55343900313565375</v>
+        <v>0.78489147129545445</v>
       </c>
       <c r="K34" s="0">
         <v>0</v>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="0">
-        <v>0.50131385448090449</v>
+        <v>0.79962128494926543</v>
       </c>
       <c r="V35" s="0">
         <v>0</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="AC35" s="0">
-        <v>0.87782312208712676</v>
+        <v>0.91989305163533497</v>
       </c>
       <c r="AD35" s="0">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="0">
-        <v>0.70269405817258423</v>
+        <v>0.97077266182799882</v>
       </c>
       <c r="AQ35" s="0">
         <v>0</v>
@@ -7368,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="0">
-        <v>0.83644242996010487</v>
+        <v>0.94314657479106634</v>
       </c>
       <c r="L36" s="0">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="0">
-        <v>0.56647165935840627</v>
+        <v>0.73933914740844031</v>
       </c>
       <c r="O36" s="0">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>0.63979195400130262</v>
+        <v>0.86920057688244956</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7774,13 +7774,13 @@
         <v>0</v>
       </c>
       <c r="I38" s="0">
-        <v>0.74059897467097846</v>
+        <v>0.89378433002398094</v>
       </c>
       <c r="J38" s="0">
         <v>0</v>
       </c>
       <c r="K38" s="0">
-        <v>0.74915257781036493</v>
+        <v>0.87024647992725801</v>
       </c>
       <c r="L38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.74363733765755946</v>
+        <v>0.83760810924844153</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="0">
-        <v>0.52604982172729442</v>
+        <v>0.95991075825222505</v>
       </c>
       <c r="H39" s="0">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="0">
-        <v>0.54600370718006297</v>
+        <v>0.95982966496184619</v>
       </c>
       <c r="Q39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.52046551447783429</v>
+        <v>0.55110446232193544</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.80017733616957387</v>
+        <v>0.95603424185853936</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.54706919605435167</v>
+        <v>0.57269317588996205</v>
       </c>
       <c r="AQ41" s="0">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="0">
-        <v>0.77565032524734656</v>
+        <v>0.90851442015238004</v>
       </c>
       <c r="N42" s="0">
         <v>0</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="AE42" s="0">
-        <v>0.67594124766963515</v>
+        <v>0.87348224865588175</v>
       </c>
       <c r="AF42" s="0">
         <v>0</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="0">
-        <v>0.67632102748946044</v>
+        <v>0.86004611926222718</v>
       </c>
       <c r="L43" s="0">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="0">
-        <v>0.81619391237684424</v>
+        <v>0.94744448537077641</v>
       </c>
       <c r="F44" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0.79627336368572488</v>
+        <v>0.83757080468764711</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.5874410582010281</v>
+        <v>0.70169492304857584</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.50173013320268478</v>
+        <v>0.76349743162165995</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="0">
-        <v>0.84068189719094666</v>
+        <v>0.90191315487310653</v>
       </c>
       <c r="K46" s="0">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0">
-        <v>0.79929011183585597</v>
+        <v>0.88757670604094274</v>
       </c>
       <c r="X46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.72868060886089747</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.51713286741909736</v>
+        <v>0.89672757869870734</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="0">
-        <v>0.5846449945450849</v>
+        <v>0.76125403519131618</v>
       </c>
       <c r="I48" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.64526699068637594</v>
+        <v>0.72868060886089747</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="AB49" s="0">
-        <v>0.58461599885888194</v>
+        <v>0.63980280351169339</v>
       </c>
       <c r="AC49" s="0">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="0">
-        <v>0.81082443396926906</v>
+        <v>0.89866101532248188</v>
       </c>
       <c r="AL49" s="0">
         <v>0</v>
@@ -10169,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="0">
-        <v>0.67318036051661256</v>
+        <v>0.95287847511856238</v>
       </c>
       <c r="BA49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>0.55491204860589349</v>
+        <v>0.9178376219986224</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="0">
-        <v>0.75313187161146655</v>
+        <v>0.89943455239679249</v>
       </c>
       <c r="S50" s="0">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>0.50782675368935348</v>
+        <v>0.78108697129111881</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.90368855750614485</v>
+        <v>0.9960543591057569</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0.53399543755200596</v>
+        <v>0.75492572709964256</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="0">
-        <v>0.51164156479928213</v>
+        <v>0.81876097669294312</v>
       </c>
       <c r="AS51" s="0">
         <v>0</v>
@@ -10575,19 +10575,19 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.73679638098523614</v>
+        <v>0.82409047338424224</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.57859190038990116</v>
+        <v>0.61473782947470101</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
       </c>
       <c r="BB51" s="0">
-        <v>0.5045900936074017</v>
+        <v>0.86599206351005031</v>
       </c>
       <c r="BC51" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.54237867111961058</v>
+        <v>0.77804103961797977</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="R55" s="0">
-        <v>0.68596532187982906</v>
+        <v>0.76631813269308791</v>
       </c>
       <c r="S55" s="0">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="AW55" s="0">
-        <v>0.84765196073432392</v>
+        <v>0.85391979141555874</v>
       </c>
       <c r="AX55" s="0">
         <v>0</v>
@@ -11539,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AB56" s="0">
-        <v>0.86268896079644031</v>
+        <v>0.94221047001379166</v>
       </c>
       <c r="AC56" s="0">
         <v>0</v>
@@ -11664,13 +11664,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>0.51975924585323496</v>
+        <v>0.79571703606231736</v>
       </c>
       <c r="B57" s="0">
         <v>0</v>
       </c>
       <c r="C57" s="0">
-        <v>0.58482518568442521</v>
+        <v>0.89291118955425586</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="0">
-        <v>0.58737694101508309</v>
+        <v>0.63503467227820343</v>
       </c>
       <c r="Q58" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.64561541679228429</v>
+        <v>0.7946272394951539</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="D60" s="0">
-        <v>0.90137203561310208</v>
+        <v>0.90542574973938339</v>
       </c>
       <c r="E60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>0.75880027921361903</v>
+        <v>0.97834477105350159</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.59753820906475341</v>
+        <v>0.84893805236617759</v>
       </c>
       <c r="BJ60" s="0">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.73683455698945943</v>
+        <v>0.80660143830514985</v>
       </c>
       <c r="R61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.67076767133410642</v>
+        <v>0.92152389976434801</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0.58949736791316498</v>
+        <v>0.60288088753892533</v>
       </c>
       <c r="I62" s="0">
         <v>0</v>
@@ -12832,13 +12832,13 @@
         <v>0</v>
       </c>
       <c r="AU62" s="0">
-        <v>0.80924246022110469</v>
+        <v>0.81291255458088996</v>
       </c>
       <c r="AV62" s="0">
         <v>0</v>
       </c>
       <c r="AW62" s="0">
-        <v>0.84597785377881229</v>
+        <v>0.87756479023246503</v>
       </c>
       <c r="AX62" s="0">
         <v>0</v>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="0">
-        <v>0.559908723274127</v>
+        <v>0.96443754419350924</v>
       </c>
       <c r="AL63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>0.59093347498622006</v>
+        <v>0.87076352103681964</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13253,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="AX64" s="0">
-        <v>0.6450077338685114</v>
+        <v>0.79973656218311651</v>
       </c>
       <c r="AY64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.68360916086374079</v>
+        <v>0.81335356000266246</v>
       </c>
       <c r="BN64" s="0">
         <v>0.86829739644148585</v>
@@ -13348,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="0">
-        <v>0.6104934658160448</v>
+        <v>0.91465968169463718</v>
       </c>
       <c r="N65" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0.76522367295921279</v>
+        <v>0.97277650762534784</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13432,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="0">
-        <v>0.88045149558575453</v>
+        <v>0.88992720922427715</v>
       </c>
       <c r="AP65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.56979362257483301</v>
+        <v>0.84965098595371591</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="0">
-        <v>0.62057946581881795</v>
+        <v>0.70369828387440703</v>
       </c>
       <c r="V66" s="0">
         <v>0</v>
@@ -13701,13 +13701,13 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="0">
-        <v>0.56666938159939328</v>
+        <v>0.99621661241068549</v>
       </c>
       <c r="BK66" s="0">
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.63927182490654699</v>
+        <v>0.86829739644148585</v>
       </c>
       <c r="BM66" s="0">
         <v>0</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="AZ67" s="0">
-        <v>0.84872574643141085</v>
+        <v>0.94969865758218774</v>
       </c>
       <c r="BA67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.5878216637827578</v>
+        <v>0.98393164107267772</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>0.67919285255544692</v>
+        <v>0.83097279652764688</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="BL68" s="0">
-        <v>0.77649809286201199</v>
+        <v>0.82224818544579426</v>
       </c>
       <c r="BM68" s="0">
         <v>0</v>
